--- a/src/main/resources/files/API목록.xlsx
+++ b/src/main/resources/files/API목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanaBank\workspace\kakao-online\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0618D3FE-1A95-41FF-8F99-903321E30940}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52725409-CFCE-4671-84F7-25894B9C3225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C7EC08A-CB10-409E-ACF1-25950BAD22D8}"/>
   </bookViews>
@@ -171,10 +171,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카카오뱅크계좌 혹은 타은행내계좌로 이체한다.</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>입금이 완료되지 않은 거래에 대해 취소 처리한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,6 +467,10 @@
   </si>
   <si>
     <t>API목록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카카오뱅크계좌 혹은 타행내계좌로 이체한다.</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -893,7 +893,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="48">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -903,9 +903,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" quotePrefix="1" applyFill="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
@@ -933,6 +930,84 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -945,15 +1020,6 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="16" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -962,81 +1028,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="20" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="21" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="26" xfId="0" applyFill="1" applyBorder="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="27" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="28" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1354,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB17298-5040-480E-8A98-A8FC1B250CA6}">
   <dimension ref="A2:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A76" workbookViewId="0">
-      <selection activeCell="C87" sqref="C87:H94"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1373,1343 +1364,1281 @@
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="B3" s="2"/>
-      <c r="C3" s="5" t="s">
+      <c r="C3" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="D3" s="6" t="s">
+      <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="43" t="s">
+      <c r="E3" s="32" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="43"/>
-      <c r="G3" s="43"/>
-      <c r="H3" s="44"/>
+      <c r="F3" s="32"/>
+      <c r="G3" s="32"/>
+      <c r="H3" s="33"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
-      <c r="C4" s="8">
+      <c r="C4" s="7">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="37" t="s">
+      <c r="E4" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="37"/>
-      <c r="G4" s="37"/>
-      <c r="H4" s="45"/>
+      <c r="F4" s="28"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="29"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
-      <c r="C5" s="8">
+      <c r="C5" s="7">
         <v>2</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="37" t="s">
+      <c r="E5" s="28" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="37"/>
-      <c r="G5" s="37"/>
-      <c r="H5" s="45"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="29"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="4" t="s">
+      <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E6" s="28" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="37"/>
-      <c r="G6" s="37"/>
-      <c r="H6" s="45"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="29"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
-      <c r="C7" s="8">
+      <c r="C7" s="7">
         <v>4</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="37" t="s">
-        <v>36</v>
-      </c>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="45"/>
+      <c r="E7" s="28" t="s">
+        <v>113</v>
+      </c>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="29"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
-      <c r="C8" s="8">
+      <c r="C8" s="7">
         <v>5</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="37" t="s">
-        <v>37</v>
-      </c>
-      <c r="F8" s="37"/>
-      <c r="G8" s="37"/>
-      <c r="H8" s="45"/>
+      <c r="E8" s="28" t="s">
+        <v>36</v>
+      </c>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="29"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>6</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="37" t="s">
-        <v>38</v>
-      </c>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="45"/>
+      <c r="E9" s="28" t="s">
+        <v>37</v>
+      </c>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="29"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
-      <c r="C10" s="10">
+      <c r="C10" s="9">
         <v>7</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="46" t="s">
-        <v>39</v>
-      </c>
-      <c r="F10" s="46"/>
-      <c r="G10" s="46"/>
-      <c r="H10" s="47"/>
+      <c r="E10" s="30" t="s">
+        <v>38</v>
+      </c>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="31"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="C13" s="5" t="s">
+        <v>80</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D13" s="6" t="s">
+      <c r="E13" s="40" t="s">
+        <v>26</v>
+      </c>
+      <c r="F13" s="41"/>
+      <c r="G13" s="15" t="s">
+        <v>47</v>
+      </c>
+      <c r="H13" s="6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C14" s="34" t="s">
         <v>41</v>
       </c>
-      <c r="E13" s="15" t="s">
-        <v>26</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="23" t="s">
+      <c r="D14" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E14" s="38" t="s">
+        <v>2</v>
+      </c>
+      <c r="F14" s="39"/>
+      <c r="G14" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="H14" s="8" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C15" s="35"/>
+      <c r="D15" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E15" s="38" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="39"/>
+      <c r="G15" s="16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" s="8" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C16" s="35"/>
+      <c r="D16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E16" s="38" t="s">
+        <v>3</v>
+      </c>
+      <c r="F16" s="39"/>
+      <c r="G16" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="H13" s="7" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="25" t="s">
+      <c r="H16" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C17" s="35"/>
+      <c r="D17" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E17" s="38" t="s">
+        <v>4</v>
+      </c>
+      <c r="F17" s="39"/>
+      <c r="G17" s="16" t="s">
+        <v>49</v>
+      </c>
+      <c r="H17" s="8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C18" s="35"/>
+      <c r="D18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E18" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="F18" s="39"/>
+      <c r="G18" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H18" s="8" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C19" s="35"/>
+      <c r="D19" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="38" t="s">
+        <v>52</v>
+      </c>
+      <c r="F19" s="39"/>
+      <c r="G19" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="H19" s="8" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C20" s="36"/>
+      <c r="D20" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E20" s="38" t="s">
+        <v>32</v>
+      </c>
+      <c r="F20" s="39"/>
+      <c r="G20" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="H20" s="8" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C21" s="34" t="s">
         <v>42</v>
       </c>
-      <c r="D14" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E14" s="13" t="s">
+      <c r="D21" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E21" s="38" t="s">
+        <v>72</v>
+      </c>
+      <c r="F21" s="39"/>
+      <c r="G21" s="16"/>
+      <c r="H21" s="8" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C22" s="35"/>
+      <c r="D22" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E22" s="38" t="s">
+        <v>70</v>
+      </c>
+      <c r="F22" s="39"/>
+      <c r="G22" s="16"/>
+      <c r="H22" s="8" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C23" s="35"/>
+      <c r="D23" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E23" s="42" t="s">
+        <v>43</v>
+      </c>
+      <c r="F23" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="24" t="s">
-        <v>46</v>
-      </c>
-      <c r="H14" s="9" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="26"/>
-      <c r="D15" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E15" s="13" t="s">
-        <v>28</v>
-      </c>
-      <c r="F15" s="14"/>
-      <c r="G15" s="24" t="s">
-        <v>47</v>
-      </c>
-      <c r="H15" s="9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="26"/>
-      <c r="D16" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E16" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="24" t="s">
-        <v>49</v>
-      </c>
-      <c r="H16" s="9" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="26"/>
-      <c r="D17" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E17" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="F17" s="14"/>
-      <c r="G17" s="24" t="s">
-        <v>50</v>
-      </c>
-      <c r="H17" s="9" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="26"/>
-      <c r="D18" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E18" s="13" t="s">
+      <c r="G23" s="12"/>
+      <c r="H23" s="8" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C24" s="35"/>
+      <c r="D24" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E24" s="43"/>
+      <c r="F24" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G24" s="12"/>
+      <c r="H24" s="8" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C25" s="35"/>
+      <c r="D25" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E25" s="43"/>
+      <c r="F25" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G25" s="12"/>
+      <c r="H25" s="8" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C26" s="35"/>
+      <c r="D26" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E26" s="43"/>
+      <c r="F26" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="G26" s="12"/>
+      <c r="H26" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C27" s="35"/>
+      <c r="D27" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E27" s="43"/>
+      <c r="F27" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="G27" s="12"/>
+      <c r="H27" s="8" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C28" s="35"/>
+      <c r="D28" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E28" s="43"/>
+      <c r="F28" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="14"/>
-      <c r="G18" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H18" s="9" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="26"/>
-      <c r="D19" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E19" s="13" t="s">
-        <v>53</v>
-      </c>
-      <c r="F19" s="14"/>
-      <c r="G19" s="24" t="s">
-        <v>52</v>
-      </c>
-      <c r="H19" s="9" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="27"/>
-      <c r="D20" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E20" s="13" t="s">
-        <v>32</v>
-      </c>
-      <c r="F20" s="14"/>
-      <c r="G20" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="H20" s="9" t="s">
+      <c r="G28" s="12"/>
+      <c r="H28" s="8" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C29" s="35"/>
+      <c r="D29" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E29" s="43"/>
+      <c r="F29" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="G29" s="12"/>
+      <c r="H29" s="8" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="35"/>
+      <c r="D30" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E30" s="43"/>
+      <c r="F30" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="G30" s="12"/>
+      <c r="H30" s="8" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="25" t="s">
-        <v>43</v>
-      </c>
-      <c r="D21" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E21" s="13" t="s">
-        <v>73</v>
-      </c>
-      <c r="F21" s="14"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="9" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="26"/>
-      <c r="D22" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E22" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="F22" s="14"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="9" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="26"/>
-      <c r="D23" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E23" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="F23" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="G23" s="17"/>
-      <c r="H23" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="26"/>
-      <c r="D24" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E24" s="21"/>
-      <c r="F24" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="G24" s="17"/>
-      <c r="H24" s="9" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="26"/>
-      <c r="D25" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E25" s="21"/>
-      <c r="F25" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="G25" s="17"/>
-      <c r="H25" s="9" t="s">
+    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C31" s="35"/>
+      <c r="D31" s="3" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="26"/>
-      <c r="D26" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E26" s="21"/>
-      <c r="F26" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="G26" s="17"/>
-      <c r="H26" s="9" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="26"/>
-      <c r="D27" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E27" s="21"/>
-      <c r="F27" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="G27" s="17"/>
-      <c r="H27" s="9" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="26"/>
-      <c r="D28" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E28" s="21"/>
-      <c r="F28" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="G28" s="17"/>
-      <c r="H28" s="9" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="26"/>
-      <c r="D29" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E29" s="21"/>
-      <c r="F29" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="G29" s="17"/>
-      <c r="H29" s="9" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="26"/>
-      <c r="D30" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E30" s="21"/>
-      <c r="F30" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="G30" s="17"/>
-      <c r="H30" s="9" t="s">
+      <c r="E31" s="43"/>
+      <c r="F31" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="G31" s="12"/>
+      <c r="H31" s="8" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="26"/>
-      <c r="D31" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E31" s="21"/>
-      <c r="F31" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="G31" s="17"/>
-      <c r="H31" s="9" t="s">
-        <v>60</v>
-      </c>
-    </row>
     <row r="32" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="28"/>
-      <c r="D32" s="11" t="s">
-        <v>67</v>
-      </c>
-      <c r="E32" s="22"/>
-      <c r="F32" s="11" t="s">
+      <c r="C32" s="37"/>
+      <c r="D32" s="10" t="s">
+        <v>66</v>
+      </c>
+      <c r="E32" s="44"/>
+      <c r="F32" s="10" t="s">
         <v>13</v>
       </c>
-      <c r="G32" s="18"/>
-      <c r="H32" s="12" t="s">
-        <v>83</v>
+      <c r="G32" s="13"/>
+      <c r="H32" s="11" t="s">
+        <v>82</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
+        <v>78</v>
+      </c>
+      <c r="C35" s="23" t="s">
+        <v>39</v>
+      </c>
+      <c r="D35" s="5" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F35" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G35" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H35" s="33"/>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C36" s="24" t="s">
+        <v>41</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E36" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F36" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G36" s="28" t="s">
+        <v>68</v>
+      </c>
+      <c r="H36" s="29"/>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C37" s="25"/>
+      <c r="D37" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E37" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F37" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G37" s="28" t="s">
+        <v>107</v>
+      </c>
+      <c r="H37" s="29"/>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C38" s="26"/>
+      <c r="D38" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E38" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F38" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G38" s="28" t="s">
+        <v>108</v>
+      </c>
+      <c r="H38" s="29"/>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C39" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="D39" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E39" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="F39" s="20"/>
+      <c r="G39" s="28" t="s">
+        <v>76</v>
+      </c>
+      <c r="H39" s="29"/>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C40" s="25"/>
+      <c r="D40" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E40" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="F40" s="3"/>
+      <c r="G40" s="28" t="s">
         <v>79</v>
       </c>
-      <c r="C35" s="38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="6" t="s">
-        <v>41</v>
-      </c>
-      <c r="E35" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F35" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G35" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H35" s="44"/>
-    </row>
-    <row r="36" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C36" s="39" t="s">
-        <v>42</v>
-      </c>
-      <c r="D36" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E36" s="32" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G36" s="37" t="s">
+      <c r="H40" s="29"/>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C41" s="25"/>
+      <c r="D41" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E41" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F41" s="3"/>
+      <c r="G41" s="28" t="s">
+        <v>81</v>
+      </c>
+      <c r="H41" s="29"/>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C42" s="25"/>
+      <c r="D42" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="E42" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="F42" s="3"/>
+      <c r="G42" s="28" t="s">
+        <v>65</v>
+      </c>
+      <c r="H42" s="29"/>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C43" s="25"/>
+      <c r="D43" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E43" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3"/>
+      <c r="G43" s="28" t="s">
+        <v>109</v>
+      </c>
+      <c r="H43" s="29"/>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C44" s="25"/>
+      <c r="D44" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="F44" s="3"/>
+      <c r="G44" s="28" t="s">
+        <v>62</v>
+      </c>
+      <c r="H44" s="29"/>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C45" s="25"/>
+      <c r="D45" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E45" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="F45" s="3"/>
+      <c r="G45" s="28" t="s">
+        <v>63</v>
+      </c>
+      <c r="H45" s="29"/>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C46" s="25"/>
+      <c r="D46" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="3"/>
+      <c r="G46" s="28" t="s">
+        <v>64</v>
+      </c>
+      <c r="H46" s="29"/>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C47" s="25"/>
+      <c r="D47" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F47" s="3"/>
+      <c r="G47" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H47" s="29"/>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C48" s="25"/>
+      <c r="D48" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="F48" s="3"/>
+      <c r="G48" s="28" t="s">
+        <v>110</v>
+      </c>
+      <c r="H48" s="29"/>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C49" s="25"/>
+      <c r="D49" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F49" s="3"/>
+      <c r="G49" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H49" s="29"/>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C50" s="25"/>
+      <c r="D50" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F50" s="3"/>
+      <c r="G50" s="28" t="s">
         <v>69</v>
       </c>
-      <c r="H36" s="45"/>
-    </row>
-    <row r="37" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C37" s="40"/>
-      <c r="D37" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E37" s="32" t="s">
-        <v>7</v>
-      </c>
-      <c r="F37" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G37" s="37" t="s">
-        <v>108</v>
-      </c>
-      <c r="H37" s="45"/>
-    </row>
-    <row r="38" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C38" s="41"/>
-      <c r="D38" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E38" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F38" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G38" s="37" t="s">
-        <v>109</v>
-      </c>
-      <c r="H38" s="45"/>
-    </row>
-    <row r="39" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C39" s="39" t="s">
-        <v>43</v>
-      </c>
-      <c r="D39" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E39" s="32" t="s">
-        <v>73</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="37" t="s">
-        <v>77</v>
-      </c>
-      <c r="H39" s="45"/>
-    </row>
-    <row r="40" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C40" s="40"/>
-      <c r="D40" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E40" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="F40" s="4"/>
-      <c r="G40" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="H40" s="45"/>
-    </row>
-    <row r="41" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C41" s="40"/>
-      <c r="D41" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E41" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F41" s="4"/>
-      <c r="G41" s="37" t="s">
-        <v>82</v>
-      </c>
-      <c r="H41" s="45"/>
-    </row>
-    <row r="42" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C42" s="40"/>
-      <c r="D42" s="4" t="s">
-        <v>68</v>
-      </c>
-      <c r="E42" s="4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F42" s="4"/>
-      <c r="G42" s="37" t="s">
-        <v>66</v>
-      </c>
-      <c r="H42" s="45"/>
-    </row>
-    <row r="43" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C43" s="40"/>
-      <c r="D43" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E43" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="F43" s="4"/>
-      <c r="G43" s="37" t="s">
-        <v>110</v>
-      </c>
-      <c r="H43" s="45"/>
-    </row>
-    <row r="44" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C44" s="40"/>
-      <c r="D44" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E44" s="4" t="s">
-        <v>32</v>
-      </c>
-      <c r="F44" s="4"/>
-      <c r="G44" s="37" t="s">
-        <v>63</v>
-      </c>
-      <c r="H44" s="45"/>
-    </row>
-    <row r="45" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C45" s="40"/>
-      <c r="D45" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E45" s="4" t="s">
-        <v>33</v>
-      </c>
-      <c r="F45" s="4"/>
-      <c r="G45" s="37" t="s">
-        <v>64</v>
-      </c>
-      <c r="H45" s="45"/>
-    </row>
-    <row r="46" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C46" s="40"/>
-      <c r="D46" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E46" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="F46" s="4"/>
-      <c r="G46" s="37" t="s">
-        <v>65</v>
-      </c>
-      <c r="H46" s="45"/>
-    </row>
-    <row r="47" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C47" s="40"/>
-      <c r="D47" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E47" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F47" s="4"/>
-      <c r="G47" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H47" s="45"/>
-    </row>
-    <row r="48" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C48" s="40"/>
-      <c r="D48" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E48" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="F48" s="4"/>
-      <c r="G48" s="37" t="s">
+      <c r="H50" s="29"/>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C51" s="25"/>
+      <c r="D51" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="F51" s="3"/>
+      <c r="G51" s="28" t="s">
         <v>111</v>
       </c>
-      <c r="H48" s="45"/>
-    </row>
-    <row r="49" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C49" s="40"/>
-      <c r="D49" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E49" s="4" t="s">
-        <v>13</v>
-      </c>
-      <c r="F49" s="4"/>
-      <c r="G49" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="H49" s="45"/>
-    </row>
-    <row r="50" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C50" s="40"/>
-      <c r="D50" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E50" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="F50" s="4"/>
-      <c r="G50" s="37" t="s">
-        <v>70</v>
-      </c>
-      <c r="H50" s="45"/>
-    </row>
-    <row r="51" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C51" s="40"/>
-      <c r="D51" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E51" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="F51" s="4"/>
-      <c r="G51" s="37" t="s">
-        <v>112</v>
-      </c>
-      <c r="H51" s="45"/>
+      <c r="H51" s="29"/>
     </row>
     <row r="52" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C52" s="42"/>
-      <c r="D52" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E52" s="11" t="s">
+      <c r="C52" s="27"/>
+      <c r="D52" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="10" t="s">
         <v>17</v>
       </c>
-      <c r="F52" s="11"/>
-      <c r="G52" s="46" t="s">
+      <c r="F52" s="10"/>
+      <c r="G52" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="47"/>
+      <c r="H52" s="31"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C53" s="36"/>
-      <c r="D53" s="3"/>
-      <c r="E53" s="3"/>
-      <c r="F53" s="3"/>
-      <c r="G53" s="3"/>
+      <c r="C53" s="22"/>
     </row>
     <row r="54" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="55" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A55" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C55" s="5" t="s">
+      <c r="C55" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D55" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D55" s="6" t="s">
+      <c r="E55" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F55" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G55" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H55" s="33"/>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C56" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E55" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F55" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G55" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H55" s="44"/>
-    </row>
-    <row r="56" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C56" s="29" t="s">
+      <c r="D56" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F56" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G56" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H56" s="29"/>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C57" s="18"/>
+      <c r="D57" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F57" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G57" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H57" s="29"/>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C58" s="18"/>
+      <c r="D58" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F58" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G58" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H58" s="29"/>
+    </row>
+    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C59" s="18"/>
+      <c r="D59" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F59" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G59" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H59" s="29"/>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C60" s="18"/>
+      <c r="D60" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F60" s="20"/>
+      <c r="G60" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H60" s="29"/>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C61" s="18"/>
+      <c r="D61" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F61" s="3"/>
+      <c r="G61" s="28" t="s">
+        <v>101</v>
+      </c>
+      <c r="H61" s="29"/>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C62" s="18"/>
+      <c r="D62" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F62" s="3"/>
+      <c r="G62" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H62" s="29"/>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C63" s="18"/>
+      <c r="D63" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F63" s="3"/>
+      <c r="G63" s="28" t="s">
+        <v>99</v>
+      </c>
+      <c r="H63" s="29"/>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C64" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D56" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E56" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F56" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G56" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H56" s="45"/>
-    </row>
-    <row r="57" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C57" s="30"/>
-      <c r="D57" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E57" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F57" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G57" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="H57" s="45"/>
-    </row>
-    <row r="58" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C58" s="30"/>
-      <c r="D58" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E58" s="32" t="s">
-        <v>86</v>
-      </c>
-      <c r="F58" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G58" s="37" t="s">
+      <c r="D64" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F64" s="3"/>
+      <c r="G64" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H64" s="29"/>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C65" s="18"/>
+      <c r="D65" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F65" s="3"/>
+      <c r="G65" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H65" s="29"/>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C66" s="18"/>
+      <c r="D66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F66" s="3"/>
+      <c r="G66" s="28" t="s">
         <v>97</v>
       </c>
-      <c r="H58" s="45"/>
-    </row>
-    <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C59" s="30"/>
-      <c r="D59" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E59" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F59" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G59" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H59" s="45"/>
-    </row>
-    <row r="60" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C60" s="30"/>
-      <c r="D60" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E60" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F60" s="33"/>
-      <c r="G60" s="37" t="s">
-        <v>104</v>
-      </c>
-      <c r="H60" s="45"/>
-    </row>
-    <row r="61" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C61" s="30"/>
-      <c r="D61" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E61" s="4" t="s">
+      <c r="H66" s="29"/>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C67" s="18"/>
+      <c r="D67" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F67" s="14"/>
+      <c r="G67" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H67" s="29"/>
+    </row>
+    <row r="68" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C68" s="19"/>
+      <c r="D68" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E68" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="F61" s="4"/>
-      <c r="G61" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H61" s="45"/>
-    </row>
-    <row r="62" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C62" s="30"/>
-      <c r="D62" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E62" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F62" s="4"/>
-      <c r="G62" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H62" s="45"/>
-    </row>
-    <row r="63" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C63" s="30"/>
-      <c r="D63" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E63" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F63" s="4"/>
-      <c r="G63" s="37" t="s">
-        <v>100</v>
-      </c>
-      <c r="H63" s="45"/>
-    </row>
-    <row r="64" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C64" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D64" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E64" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="F64" s="4"/>
-      <c r="G64" s="37" t="s">
+      <c r="F68" s="10"/>
+      <c r="G68" s="28" t="s">
         <v>101</v>
       </c>
-      <c r="H64" s="45"/>
-    </row>
-    <row r="65" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C65" s="30"/>
-      <c r="D65" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E65" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F65" s="4"/>
-      <c r="G65" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H65" s="45"/>
-    </row>
-    <row r="66" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C66" s="30"/>
-      <c r="D66" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E66" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="F66" s="4"/>
-      <c r="G66" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H66" s="45"/>
-    </row>
-    <row r="67" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C67" s="30"/>
-      <c r="D67" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E67" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F67" s="19"/>
-      <c r="G67" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="H67" s="45"/>
-    </row>
-    <row r="68" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C68" s="31"/>
-      <c r="D68" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E68" s="11" t="s">
-        <v>16</v>
-      </c>
-      <c r="F68" s="11"/>
-      <c r="G68" s="37" t="s">
-        <v>102</v>
-      </c>
-      <c r="H68" s="45"/>
+      <c r="H68" s="29"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C69" s="36"/>
-      <c r="D69" s="3"/>
-      <c r="E69" s="3"/>
-      <c r="F69" s="3"/>
-      <c r="G69" s="3"/>
+      <c r="C69" s="22"/>
     </row>
     <row r="70" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="71" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A71" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="C71" s="5" t="s">
+      <c r="C71" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D71" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D71" s="6" t="s">
+      <c r="E71" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F71" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G71" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H71" s="33"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C72" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E71" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F71" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G71" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H71" s="44"/>
-    </row>
-    <row r="72" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C72" s="29" t="s">
+      <c r="D72" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F72" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G72" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H72" s="29"/>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C73" s="18"/>
+      <c r="D73" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E73" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="F73" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G73" s="28" t="s">
+        <v>95</v>
+      </c>
+      <c r="H73" s="29"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C74" s="18"/>
+      <c r="D74" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="F74" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G74" s="28" t="s">
+        <v>96</v>
+      </c>
+      <c r="H74" s="29"/>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C75" s="18"/>
+      <c r="D75" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E75" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="F75" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G75" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H75" s="29"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C76" s="18"/>
+      <c r="D76" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E76" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="F76" s="3"/>
+      <c r="G76" s="28" t="s">
+        <v>103</v>
+      </c>
+      <c r="H76" s="29"/>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C77" s="18"/>
+      <c r="D77" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E77" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F77" s="3"/>
+      <c r="G77" s="28" t="s">
+        <v>104</v>
+      </c>
+      <c r="H77" s="29"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C78" s="18"/>
+      <c r="D78" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E78" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="F78" s="3"/>
+      <c r="G78" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H78" s="29"/>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C79" s="18"/>
+      <c r="D79" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E79" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="F79" s="3"/>
+      <c r="G79" s="28" t="s">
+        <v>105</v>
+      </c>
+      <c r="H79" s="29"/>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C80" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D72" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E72" s="32" t="s">
-        <v>19</v>
-      </c>
-      <c r="F72" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G72" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H72" s="45"/>
-    </row>
-    <row r="73" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C73" s="30"/>
-      <c r="D73" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E73" s="32" t="s">
-        <v>85</v>
-      </c>
-      <c r="F73" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G73" s="37" t="s">
-        <v>96</v>
-      </c>
-      <c r="H73" s="45"/>
-    </row>
-    <row r="74" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C74" s="30"/>
-      <c r="D74" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E74" s="32" t="s">
+      <c r="D80" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E80" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F80" s="3"/>
+      <c r="G80" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H80" s="29"/>
+    </row>
+    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C81" s="18"/>
+      <c r="D81" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="F81" s="3"/>
+      <c r="G81" s="28" t="s">
+        <v>98</v>
+      </c>
+      <c r="H81" s="29"/>
+    </row>
+    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C82" s="18"/>
+      <c r="D82" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F82" s="3"/>
+      <c r="G82" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H82" s="29"/>
+    </row>
+    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C83" s="18"/>
+      <c r="D83" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F83" s="3"/>
+      <c r="G83" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H83" s="29"/>
+    </row>
+    <row r="84" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C84" s="19"/>
+      <c r="D84" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E84" s="10" t="s">
         <v>86</v>
       </c>
-      <c r="F74" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G74" s="37" t="s">
-        <v>97</v>
-      </c>
-      <c r="H74" s="45"/>
-    </row>
-    <row r="75" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C75" s="30"/>
-      <c r="D75" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E75" s="32" t="s">
-        <v>9</v>
-      </c>
-      <c r="F75" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G75" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H75" s="45"/>
-    </row>
-    <row r="76" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C76" s="30"/>
-      <c r="D76" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E76" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="F76" s="4"/>
-      <c r="G76" s="37" t="s">
+      <c r="F84" s="10"/>
+      <c r="G84" s="28" t="s">
         <v>104</v>
       </c>
-      <c r="H76" s="45"/>
-    </row>
-    <row r="77" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C77" s="30"/>
-      <c r="D77" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E77" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="F77" s="4"/>
-      <c r="G77" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H77" s="45"/>
-    </row>
-    <row r="78" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C78" s="30"/>
-      <c r="D78" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E78" s="4" t="s">
-        <v>88</v>
-      </c>
-      <c r="F78" s="4"/>
-      <c r="G78" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H78" s="45"/>
-    </row>
-    <row r="79" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C79" s="30"/>
-      <c r="D79" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E79" s="4" t="s">
-        <v>89</v>
-      </c>
-      <c r="F79" s="4"/>
-      <c r="G79" s="37" t="s">
-        <v>106</v>
-      </c>
-      <c r="H79" s="45"/>
-    </row>
-    <row r="80" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C80" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D80" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E80" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F80" s="4"/>
-      <c r="G80" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H80" s="45"/>
-    </row>
-    <row r="81" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C81" s="30"/>
-      <c r="D81" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E81" s="4" t="s">
-        <v>91</v>
-      </c>
-      <c r="F81" s="4"/>
-      <c r="G81" s="37" t="s">
-        <v>99</v>
-      </c>
-      <c r="H81" s="45"/>
-    </row>
-    <row r="82" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C82" s="30"/>
-      <c r="D82" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E82" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F82" s="4"/>
-      <c r="G82" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H82" s="45"/>
-    </row>
-    <row r="83" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C83" s="30"/>
-      <c r="D83" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E83" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F83" s="4"/>
-      <c r="G83" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="H83" s="45"/>
-    </row>
-    <row r="84" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C84" s="31"/>
-      <c r="D84" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E84" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="F84" s="11"/>
-      <c r="G84" s="37" t="s">
-        <v>105</v>
-      </c>
-      <c r="H84" s="45"/>
+      <c r="H84" s="29"/>
     </row>
     <row r="86" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A87" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="C87" s="5" t="s">
+      <c r="C87" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="D87" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="D87" s="6" t="s">
+      <c r="E87" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="F87" s="21" t="s">
+        <v>47</v>
+      </c>
+      <c r="G87" s="32" t="s">
+        <v>27</v>
+      </c>
+      <c r="H87" s="33"/>
+    </row>
+    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C88" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="E87" s="34" t="s">
-        <v>26</v>
-      </c>
-      <c r="F87" s="35" t="s">
-        <v>48</v>
-      </c>
-      <c r="G87" s="43" t="s">
-        <v>27</v>
-      </c>
-      <c r="H87" s="44"/>
-    </row>
-    <row r="88" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C88" s="29" t="s">
+      <c r="D88" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F88" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G88" s="28" t="s">
+        <v>102</v>
+      </c>
+      <c r="H88" s="29"/>
+    </row>
+    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C89" s="18"/>
+      <c r="D89" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F89" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G89" s="28" t="s">
+        <v>106</v>
+      </c>
+      <c r="H89" s="29"/>
+    </row>
+    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C90" s="18"/>
+      <c r="D90" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F90" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="G90" s="28" t="s">
+        <v>94</v>
+      </c>
+      <c r="H90" s="29"/>
+    </row>
+    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C91" s="17" t="s">
         <v>42</v>
       </c>
-      <c r="D88" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E88" s="32" t="s">
-        <v>84</v>
-      </c>
-      <c r="F88" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G88" s="37" t="s">
-        <v>103</v>
-      </c>
-      <c r="H88" s="45"/>
-    </row>
-    <row r="89" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C89" s="30"/>
-      <c r="D89" s="4" t="s">
-        <v>78</v>
-      </c>
-      <c r="E89" s="32" t="s">
+      <c r="D91" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="F91" s="3"/>
+      <c r="G91" s="28" t="s">
+        <v>100</v>
+      </c>
+      <c r="H91" s="29"/>
+    </row>
+    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C92" s="18"/>
+      <c r="D92" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="F92" s="3"/>
+      <c r="G92" s="28" t="s">
+        <v>97</v>
+      </c>
+      <c r="H92" s="29"/>
+    </row>
+    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="C93" s="18"/>
+      <c r="D93" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="E93" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="F93" s="3"/>
+      <c r="G93" s="28" t="s">
+        <v>82</v>
+      </c>
+      <c r="H93" s="29"/>
+    </row>
+    <row r="94" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C94" s="19"/>
+      <c r="D94" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="E94" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="F89" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G89" s="37" t="s">
-        <v>107</v>
-      </c>
-      <c r="H89" s="45"/>
-    </row>
-    <row r="90" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C90" s="30"/>
-      <c r="D90" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E90" s="32" t="s">
+      <c r="F94" s="10"/>
+      <c r="G94" s="30" t="s">
         <v>93</v>
       </c>
-      <c r="F90" s="33" t="s">
-        <v>46</v>
-      </c>
-      <c r="G90" s="37" t="s">
-        <v>95</v>
-      </c>
-      <c r="H90" s="45"/>
-    </row>
-    <row r="91" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C91" s="29" t="s">
-        <v>43</v>
-      </c>
-      <c r="D91" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E91" s="4" t="s">
-        <v>90</v>
-      </c>
-      <c r="F91" s="4"/>
-      <c r="G91" s="37" t="s">
-        <v>101</v>
-      </c>
-      <c r="H91" s="45"/>
-    </row>
-    <row r="92" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C92" s="30"/>
-      <c r="D92" s="4" t="s">
-        <v>31</v>
-      </c>
-      <c r="E92" s="4" t="s">
-        <v>59</v>
-      </c>
-      <c r="F92" s="4"/>
-      <c r="G92" s="37" t="s">
-        <v>98</v>
-      </c>
-      <c r="H92" s="45"/>
-    </row>
-    <row r="93" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C93" s="30"/>
-      <c r="D93" s="4" t="s">
-        <v>67</v>
-      </c>
-      <c r="E93" s="4" t="s">
-        <v>61</v>
-      </c>
-      <c r="F93" s="4"/>
-      <c r="G93" s="37" t="s">
-        <v>83</v>
-      </c>
-      <c r="H93" s="45"/>
-    </row>
-    <row r="94" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C94" s="31"/>
-      <c r="D94" s="11" t="s">
-        <v>31</v>
-      </c>
-      <c r="E94" s="11" t="s">
-        <v>93</v>
-      </c>
-      <c r="F94" s="11"/>
-      <c r="G94" s="46" t="s">
-        <v>94</v>
-      </c>
-      <c r="H94" s="47"/>
+      <c r="H94" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G35:H35"/>
-    <mergeCell ref="G36:H36"/>
-    <mergeCell ref="G37:H37"/>
-    <mergeCell ref="G38:H38"/>
-    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="C14:C20"/>
@@ -2719,12 +2648,66 @@
     <mergeCell ref="E17:F17"/>
     <mergeCell ref="E20:F20"/>
     <mergeCell ref="E21:F21"/>
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E23:E32"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="G35:H35"/>
+    <mergeCell ref="G36:H36"/>
+    <mergeCell ref="G37:H37"/>
+    <mergeCell ref="G38:H38"/>
+    <mergeCell ref="G39:H39"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/files/API목록.xlsx
+++ b/src/main/resources/files/API목록.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\HanaBank\workspace\kakao-online\src\main\resources\files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52725409-CFCE-4671-84F7-25894B9C3225}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C11CD0C1-B9D5-4B66-9F73-ADCF8423A316}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{1C7EC08A-CB10-409E-ACF1-25950BAD22D8}"/>
   </bookViews>
@@ -239,10 +239,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>조회기간코드(직접설정, 지난달, 3개월, 1개월)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>조회기준시작일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -280,10 +276,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>거래통화코드(KRW, USD)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>거래일자</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -471,6 +463,14 @@
   </si>
   <si>
     <t>카카오뱅크계좌 혹은 타행내계좌로 이체한다.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>조회기간코드(직접설정,지난달,3개월,1개월)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>거래통화코드(KRW,USD)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -978,56 +978,56 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="22" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="23" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="25" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="12" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="13" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="17" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="18" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="19" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1345,8 +1345,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3BB17298-5040-480E-8A98-A8FC1B250CA6}">
   <dimension ref="A2:H94"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L19" sqref="L19"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="L49" sqref="L49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1364,7 +1364,7 @@
     <row r="2" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="3" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B3" s="2"/>
       <c r="C3" s="4" t="s">
@@ -1373,12 +1373,12 @@
       <c r="D3" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="E3" s="32" t="s">
+      <c r="E3" s="41" t="s">
         <v>25</v>
       </c>
-      <c r="F3" s="32"/>
-      <c r="G3" s="32"/>
-      <c r="H3" s="33"/>
+      <c r="F3" s="41"/>
+      <c r="G3" s="41"/>
+      <c r="H3" s="42"/>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B4" s="2"/>
@@ -1388,12 +1388,12 @@
       <c r="D4" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="E4" s="28" t="s">
+      <c r="E4" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="F4" s="28"/>
-      <c r="G4" s="28"/>
-      <c r="H4" s="29"/>
+      <c r="F4" s="35"/>
+      <c r="G4" s="35"/>
+      <c r="H4" s="36"/>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B5" s="2"/>
@@ -1403,12 +1403,12 @@
       <c r="D5" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="E5" s="28" t="s">
+      <c r="E5" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="29"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="36"/>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B6" s="2"/>
@@ -1418,12 +1418,12 @@
       <c r="D6" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="28" t="s">
+      <c r="E6" s="35" t="s">
         <v>35</v>
       </c>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="29"/>
+      <c r="F6" s="35"/>
+      <c r="G6" s="35"/>
+      <c r="H6" s="36"/>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B7" s="2"/>
@@ -1433,12 +1433,12 @@
       <c r="D7" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="E7" s="28" t="s">
-        <v>113</v>
-      </c>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="29"/>
+      <c r="E7" s="35" t="s">
+        <v>111</v>
+      </c>
+      <c r="F7" s="35"/>
+      <c r="G7" s="35"/>
+      <c r="H7" s="36"/>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B8" s="2"/>
@@ -1448,12 +1448,12 @@
       <c r="D8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="28" t="s">
+      <c r="E8" s="35" t="s">
         <v>36</v>
       </c>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="29"/>
+      <c r="F8" s="35"/>
+      <c r="G8" s="35"/>
+      <c r="H8" s="36"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.3">
       <c r="B9" s="2"/>
@@ -1463,12 +1463,12 @@
       <c r="D9" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="E9" s="28" t="s">
+      <c r="E9" s="35" t="s">
         <v>37</v>
       </c>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="29"/>
+      <c r="F9" s="35"/>
+      <c r="G9" s="35"/>
+      <c r="H9" s="36"/>
     </row>
     <row r="10" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B10" s="2"/>
@@ -1478,17 +1478,17 @@
       <c r="D10" s="10" t="s">
         <v>1</v>
       </c>
-      <c r="E10" s="30" t="s">
+      <c r="E10" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="31"/>
+      <c r="F10" s="43"/>
+      <c r="G10" s="43"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="12" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="C13" s="4" t="s">
         <v>39</v>
@@ -1496,10 +1496,10 @@
       <c r="D13" s="5" t="s">
         <v>40</v>
       </c>
-      <c r="E13" s="40" t="s">
+      <c r="E13" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="F13" s="41"/>
+      <c r="F13" s="29"/>
       <c r="G13" s="15" t="s">
         <v>47</v>
       </c>
@@ -1508,16 +1508,16 @@
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C14" s="34" t="s">
+      <c r="C14" s="37" t="s">
         <v>41</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E14" s="38" t="s">
+      <c r="E14" s="33" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="39"/>
+      <c r="F14" s="34"/>
       <c r="G14" s="16" t="s">
         <v>45</v>
       </c>
@@ -1526,137 +1526,137 @@
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C15" s="35"/>
+      <c r="C15" s="38"/>
       <c r="D15" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E15" s="38" t="s">
+      <c r="E15" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="F15" s="39"/>
+      <c r="F15" s="34"/>
       <c r="G15" s="16" t="s">
         <v>46</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>53</v>
+        <v>112</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.3">
-      <c r="C16" s="35"/>
+      <c r="C16" s="38"/>
       <c r="D16" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E16" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E16" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="F16" s="39"/>
+      <c r="F16" s="34"/>
       <c r="G16" s="16" t="s">
         <v>48</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C17" s="35"/>
+      <c r="C17" s="38"/>
       <c r="D17" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E17" s="38" t="s">
+        <v>65</v>
+      </c>
+      <c r="E17" s="33" t="s">
         <v>4</v>
       </c>
-      <c r="F17" s="39"/>
+      <c r="F17" s="34"/>
       <c r="G17" s="16" t="s">
         <v>49</v>
       </c>
       <c r="H17" s="8" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="35"/>
+      <c r="C18" s="38"/>
       <c r="D18" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E18" s="38" t="s">
+      <c r="E18" s="33" t="s">
         <v>33</v>
       </c>
-      <c r="F18" s="39"/>
+      <c r="F18" s="34"/>
       <c r="G18" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H18" s="8" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="19" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C19" s="35"/>
+      <c r="C19" s="38"/>
       <c r="D19" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E19" s="38" t="s">
+      <c r="E19" s="33" t="s">
         <v>52</v>
       </c>
-      <c r="F19" s="39"/>
+      <c r="F19" s="34"/>
       <c r="G19" s="16" t="s">
         <v>51</v>
       </c>
       <c r="H19" s="8" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="20" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C20" s="36"/>
+      <c r="C20" s="39"/>
       <c r="D20" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E20" s="38" t="s">
+      <c r="E20" s="33" t="s">
         <v>32</v>
       </c>
-      <c r="F20" s="39"/>
+      <c r="F20" s="34"/>
       <c r="G20" s="16" t="s">
         <v>50</v>
       </c>
       <c r="H20" s="8" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="21" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C21" s="34" t="s">
+      <c r="C21" s="37" t="s">
         <v>42</v>
       </c>
       <c r="D21" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E21" s="38" t="s">
-        <v>72</v>
-      </c>
-      <c r="F21" s="39"/>
+      <c r="E21" s="33" t="s">
+        <v>70</v>
+      </c>
+      <c r="F21" s="34"/>
       <c r="G21" s="16"/>
       <c r="H21" s="8" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="22" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C22" s="35"/>
+      <c r="C22" s="38"/>
       <c r="D22" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E22" s="38" t="s">
-        <v>70</v>
-      </c>
-      <c r="F22" s="39"/>
+      <c r="E22" s="33" t="s">
+        <v>68</v>
+      </c>
+      <c r="F22" s="34"/>
       <c r="G22" s="16"/>
       <c r="H22" s="8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
     </row>
     <row r="23" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C23" s="35"/>
+      <c r="C23" s="38"/>
       <c r="D23" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E23" s="42" t="s">
+      <c r="E23" s="30" t="s">
         <v>43</v>
       </c>
       <c r="F23" s="3" t="s">
@@ -1664,139 +1664,139 @@
       </c>
       <c r="G23" s="12"/>
       <c r="H23" s="8" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C24" s="35"/>
+      <c r="C24" s="38"/>
       <c r="D24" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E24" s="43"/>
+      <c r="E24" s="31"/>
       <c r="F24" s="3" t="s">
         <v>7</v>
       </c>
       <c r="G24" s="12"/>
       <c r="H24" s="8" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C25" s="35"/>
+      <c r="C25" s="38"/>
       <c r="D25" s="3" t="s">
-        <v>67</v>
-      </c>
-      <c r="E25" s="43"/>
+        <v>65</v>
+      </c>
+      <c r="E25" s="31"/>
       <c r="F25" s="3" t="s">
         <v>8</v>
       </c>
       <c r="G25" s="12"/>
       <c r="H25" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="26" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C26" s="35"/>
+      <c r="C26" s="38"/>
       <c r="D26" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E26" s="43"/>
+      <c r="E26" s="31"/>
       <c r="F26" s="3" t="s">
         <v>32</v>
       </c>
       <c r="G26" s="12"/>
       <c r="H26" s="8" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="27" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C27" s="35"/>
+      <c r="C27" s="38"/>
       <c r="D27" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E27" s="43"/>
+      <c r="E27" s="31"/>
       <c r="F27" s="3" t="s">
         <v>14</v>
       </c>
       <c r="G27" s="12"/>
       <c r="H27" s="8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
     </row>
     <row r="28" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C28" s="35"/>
+      <c r="C28" s="38"/>
       <c r="D28" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E28" s="43"/>
+      <c r="E28" s="31"/>
       <c r="F28" s="3" t="s">
         <v>33</v>
       </c>
       <c r="G28" s="12"/>
       <c r="H28" s="8" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="29" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C29" s="35"/>
+      <c r="C29" s="38"/>
       <c r="D29" s="3" t="s">
         <v>31</v>
       </c>
-      <c r="E29" s="43"/>
+      <c r="E29" s="31"/>
       <c r="F29" s="3" t="s">
         <v>20</v>
       </c>
       <c r="G29" s="12"/>
       <c r="H29" s="8" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
+      <c r="C30" s="38"/>
+      <c r="D30" s="3" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="30" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C30" s="35"/>
-      <c r="D30" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E30" s="43"/>
+      <c r="E30" s="31"/>
       <c r="F30" s="3" t="s">
         <v>9</v>
       </c>
       <c r="G30" s="12"/>
       <c r="H30" s="8" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="31" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C31" s="35"/>
+      <c r="C31" s="38"/>
       <c r="D31" s="3" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="43"/>
+        <v>64</v>
+      </c>
+      <c r="E31" s="31"/>
       <c r="F31" s="3" t="s">
         <v>21</v>
       </c>
       <c r="G31" s="12"/>
       <c r="H31" s="8" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C32" s="37"/>
+      <c r="C32" s="40"/>
       <c r="D32" s="10" t="s">
-        <v>66</v>
-      </c>
-      <c r="E32" s="44"/>
+        <v>64</v>
+      </c>
+      <c r="E32" s="32"/>
       <c r="F32" s="10" t="s">
         <v>13</v>
       </c>
       <c r="G32" s="13"/>
       <c r="H32" s="11" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
     </row>
     <row r="34" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="35" spans="1:8" x14ac:dyDescent="0.3">
       <c r="A35" s="1" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="C35" s="23" t="s">
         <v>39</v>
@@ -1810,10 +1810,10 @@
       <c r="F35" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G35" s="32" t="s">
+      <c r="G35" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H35" s="33"/>
+      <c r="H35" s="42"/>
     </row>
     <row r="36" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C36" s="24" t="s">
@@ -1828,15 +1828,15 @@
       <c r="F36" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G36" s="28" t="s">
-        <v>68</v>
-      </c>
-      <c r="H36" s="29"/>
+      <c r="G36" s="35" t="s">
+        <v>66</v>
+      </c>
+      <c r="H36" s="36"/>
     </row>
     <row r="37" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C37" s="25"/>
       <c r="D37" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E37" s="3" t="s">
         <v>7</v>
@@ -1844,10 +1844,10 @@
       <c r="F37" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G37" s="28" t="s">
-        <v>107</v>
-      </c>
-      <c r="H37" s="29"/>
+      <c r="G37" s="35" t="s">
+        <v>105</v>
+      </c>
+      <c r="H37" s="36"/>
     </row>
     <row r="38" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C38" s="26"/>
@@ -1855,15 +1855,15 @@
         <v>31</v>
       </c>
       <c r="E38" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F38" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G38" s="28" t="s">
-        <v>108</v>
-      </c>
-      <c r="H38" s="29"/>
+      <c r="G38" s="35" t="s">
+        <v>106</v>
+      </c>
+      <c r="H38" s="36"/>
     </row>
     <row r="39" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C39" s="24" t="s">
@@ -1873,13 +1873,13 @@
         <v>31</v>
       </c>
       <c r="E39" s="3" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F39" s="20"/>
-      <c r="G39" s="28" t="s">
-        <v>76</v>
-      </c>
-      <c r="H39" s="29"/>
+      <c r="G39" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="H39" s="36"/>
     </row>
     <row r="40" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C40" s="25"/>
@@ -1890,10 +1890,10 @@
         <v>2</v>
       </c>
       <c r="F40" s="3"/>
-      <c r="G40" s="28" t="s">
-        <v>79</v>
-      </c>
-      <c r="H40" s="29"/>
+      <c r="G40" s="35" t="s">
+        <v>77</v>
+      </c>
+      <c r="H40" s="36"/>
     </row>
     <row r="41" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C41" s="25"/>
@@ -1904,24 +1904,24 @@
         <v>16</v>
       </c>
       <c r="F41" s="3"/>
-      <c r="G41" s="28" t="s">
-        <v>81</v>
-      </c>
-      <c r="H41" s="29"/>
+      <c r="G41" s="35" t="s">
+        <v>79</v>
+      </c>
+      <c r="H41" s="36"/>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C42" s="25"/>
       <c r="D42" s="3" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E42" s="3" t="s">
         <v>8</v>
       </c>
       <c r="F42" s="3"/>
-      <c r="G42" s="28" t="s">
-        <v>65</v>
-      </c>
-      <c r="H42" s="29"/>
+      <c r="G42" s="35" t="s">
+        <v>63</v>
+      </c>
+      <c r="H42" s="36"/>
     </row>
     <row r="43" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C43" s="25"/>
@@ -1932,10 +1932,10 @@
         <v>15</v>
       </c>
       <c r="F43" s="3"/>
-      <c r="G43" s="28" t="s">
-        <v>109</v>
-      </c>
-      <c r="H43" s="29"/>
+      <c r="G43" s="35" t="s">
+        <v>107</v>
+      </c>
+      <c r="H43" s="36"/>
     </row>
     <row r="44" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C44" s="25"/>
@@ -1946,10 +1946,10 @@
         <v>32</v>
       </c>
       <c r="F44" s="3"/>
-      <c r="G44" s="28" t="s">
-        <v>62</v>
-      </c>
-      <c r="H44" s="29"/>
+      <c r="G44" s="35" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" s="36"/>
     </row>
     <row r="45" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C45" s="25"/>
@@ -1960,10 +1960,10 @@
         <v>33</v>
       </c>
       <c r="F45" s="3"/>
-      <c r="G45" s="28" t="s">
-        <v>63</v>
-      </c>
-      <c r="H45" s="29"/>
+      <c r="G45" s="35" t="s">
+        <v>62</v>
+      </c>
+      <c r="H45" s="36"/>
     </row>
     <row r="46" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C46" s="25"/>
@@ -1974,52 +1974,52 @@
         <v>20</v>
       </c>
       <c r="F46" s="3"/>
-      <c r="G46" s="28" t="s">
-        <v>64</v>
-      </c>
-      <c r="H46" s="29"/>
+      <c r="G46" s="35" t="s">
+        <v>113</v>
+      </c>
+      <c r="H46" s="36"/>
     </row>
     <row r="47" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C47" s="25"/>
       <c r="D47" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E47" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F47" s="3"/>
-      <c r="G47" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H47" s="29"/>
+      <c r="G47" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H47" s="36"/>
     </row>
     <row r="48" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C48" s="25"/>
       <c r="D48" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E48" s="3" t="s">
         <v>21</v>
       </c>
       <c r="F48" s="3"/>
-      <c r="G48" s="28" t="s">
-        <v>110</v>
-      </c>
-      <c r="H48" s="29"/>
+      <c r="G48" s="35" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" s="36"/>
     </row>
     <row r="49" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C49" s="25"/>
       <c r="D49" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E49" s="3" t="s">
         <v>13</v>
       </c>
       <c r="F49" s="3"/>
-      <c r="G49" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H49" s="29"/>
+      <c r="G49" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H49" s="36"/>
     </row>
     <row r="50" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C50" s="25"/>
@@ -2030,10 +2030,10 @@
         <v>14</v>
       </c>
       <c r="F50" s="3"/>
-      <c r="G50" s="28" t="s">
-        <v>69</v>
-      </c>
-      <c r="H50" s="29"/>
+      <c r="G50" s="35" t="s">
+        <v>67</v>
+      </c>
+      <c r="H50" s="36"/>
     </row>
     <row r="51" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C51" s="25"/>
@@ -2044,10 +2044,10 @@
         <v>18</v>
       </c>
       <c r="F51" s="3"/>
-      <c r="G51" s="28" t="s">
-        <v>111</v>
-      </c>
-      <c r="H51" s="29"/>
+      <c r="G51" s="35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H51" s="36"/>
     </row>
     <row r="52" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C52" s="27"/>
@@ -2058,10 +2058,10 @@
         <v>17</v>
       </c>
       <c r="F52" s="10"/>
-      <c r="G52" s="30" t="s">
+      <c r="G52" s="43" t="s">
         <v>17</v>
       </c>
-      <c r="H52" s="31"/>
+      <c r="H52" s="44"/>
     </row>
     <row r="53" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C53" s="22"/>
@@ -2083,10 +2083,10 @@
       <c r="F55" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G55" s="32" t="s">
+      <c r="G55" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H55" s="33"/>
+      <c r="H55" s="42"/>
     </row>
     <row r="56" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C56" s="17" t="s">
@@ -2101,10 +2101,10 @@
       <c r="F56" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G56" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H56" s="29"/>
+      <c r="G56" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H56" s="36"/>
     </row>
     <row r="57" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C57" s="18"/>
@@ -2112,15 +2112,15 @@
         <v>31</v>
       </c>
       <c r="E57" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F57" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G57" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H57" s="29"/>
+      <c r="G57" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H57" s="36"/>
     </row>
     <row r="58" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C58" s="18"/>
@@ -2128,20 +2128,20 @@
         <v>31</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F58" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G58" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H58" s="29"/>
+      <c r="G58" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H58" s="36"/>
     </row>
     <row r="59" spans="1:8" ht="17.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C59" s="18"/>
       <c r="D59" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E59" s="3" t="s">
         <v>9</v>
@@ -2149,24 +2149,24 @@
       <c r="F59" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G59" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H59" s="29"/>
+      <c r="G59" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H59" s="36"/>
     </row>
     <row r="60" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C60" s="18"/>
       <c r="D60" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E60" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F60" s="20"/>
-      <c r="G60" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="H60" s="29"/>
+      <c r="G60" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H60" s="36"/>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C61" s="18"/>
@@ -2177,10 +2177,10 @@
         <v>16</v>
       </c>
       <c r="F61" s="3"/>
-      <c r="G61" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H61" s="29"/>
+      <c r="G61" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H61" s="36"/>
     </row>
     <row r="62" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C62" s="18"/>
@@ -2188,13 +2188,13 @@
         <v>31</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F62" s="3"/>
-      <c r="G62" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H62" s="29"/>
+      <c r="G62" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H62" s="36"/>
     </row>
     <row r="63" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C63" s="18"/>
@@ -2202,13 +2202,13 @@
         <v>31</v>
       </c>
       <c r="E63" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F63" s="3"/>
-      <c r="G63" s="28" t="s">
-        <v>99</v>
-      </c>
-      <c r="H63" s="29"/>
+      <c r="G63" s="35" t="s">
+        <v>97</v>
+      </c>
+      <c r="H63" s="36"/>
     </row>
     <row r="64" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C64" s="17" t="s">
@@ -2221,10 +2221,10 @@
         <v>23</v>
       </c>
       <c r="F64" s="3"/>
-      <c r="G64" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H64" s="29"/>
+      <c r="G64" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H64" s="36"/>
     </row>
     <row r="65" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C65" s="18"/>
@@ -2232,41 +2232,41 @@
         <v>31</v>
       </c>
       <c r="E65" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F65" s="3"/>
-      <c r="G65" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H65" s="29"/>
+      <c r="G65" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H65" s="36"/>
     </row>
     <row r="66" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C66" s="18"/>
       <c r="D66" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E66" s="3" t="s">
         <v>9</v>
       </c>
       <c r="F66" s="3"/>
-      <c r="G66" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H66" s="29"/>
+      <c r="G66" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H66" s="36"/>
     </row>
     <row r="67" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C67" s="18"/>
       <c r="D67" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F67" s="14"/>
-      <c r="G67" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H67" s="29"/>
+      <c r="G67" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H67" s="36"/>
     </row>
     <row r="68" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C68" s="19"/>
@@ -2277,10 +2277,10 @@
         <v>16</v>
       </c>
       <c r="F68" s="10"/>
-      <c r="G68" s="28" t="s">
-        <v>101</v>
-      </c>
-      <c r="H68" s="29"/>
+      <c r="G68" s="35" t="s">
+        <v>99</v>
+      </c>
+      <c r="H68" s="36"/>
     </row>
     <row r="69" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C69" s="22"/>
@@ -2302,10 +2302,10 @@
       <c r="F71" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G71" s="32" t="s">
+      <c r="G71" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H71" s="33"/>
+      <c r="H71" s="42"/>
     </row>
     <row r="72" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C72" s="17" t="s">
@@ -2320,10 +2320,10 @@
       <c r="F72" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G72" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H72" s="29"/>
+      <c r="G72" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H72" s="36"/>
     </row>
     <row r="73" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C73" s="18"/>
@@ -2331,15 +2331,15 @@
         <v>31</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="F73" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G73" s="28" t="s">
-        <v>95</v>
-      </c>
-      <c r="H73" s="29"/>
+      <c r="G73" s="35" t="s">
+        <v>93</v>
+      </c>
+      <c r="H73" s="36"/>
     </row>
     <row r="74" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C74" s="18"/>
@@ -2347,20 +2347,20 @@
         <v>31</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="F74" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G74" s="28" t="s">
-        <v>96</v>
-      </c>
-      <c r="H74" s="29"/>
+      <c r="G74" s="35" t="s">
+        <v>94</v>
+      </c>
+      <c r="H74" s="36"/>
     </row>
     <row r="75" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C75" s="18"/>
       <c r="D75" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E75" s="3" t="s">
         <v>9</v>
@@ -2368,24 +2368,24 @@
       <c r="F75" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G75" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H75" s="29"/>
+      <c r="G75" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H75" s="36"/>
     </row>
     <row r="76" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C76" s="18"/>
       <c r="D76" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E76" s="3" t="s">
         <v>22</v>
       </c>
       <c r="F76" s="3"/>
-      <c r="G76" s="28" t="s">
-        <v>103</v>
-      </c>
-      <c r="H76" s="29"/>
+      <c r="G76" s="35" t="s">
+        <v>101</v>
+      </c>
+      <c r="H76" s="36"/>
     </row>
     <row r="77" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C77" s="18"/>
@@ -2396,10 +2396,10 @@
         <v>16</v>
       </c>
       <c r="F77" s="3"/>
-      <c r="G77" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="H77" s="29"/>
+      <c r="G77" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H77" s="36"/>
     </row>
     <row r="78" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C78" s="18"/>
@@ -2407,13 +2407,13 @@
         <v>31</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F78" s="3"/>
-      <c r="G78" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H78" s="29"/>
+      <c r="G78" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H78" s="36"/>
     </row>
     <row r="79" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C79" s="18"/>
@@ -2421,13 +2421,13 @@
         <v>31</v>
       </c>
       <c r="E79" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="F79" s="3"/>
-      <c r="G79" s="28" t="s">
-        <v>105</v>
-      </c>
-      <c r="H79" s="29"/>
+      <c r="G79" s="35" t="s">
+        <v>103</v>
+      </c>
+      <c r="H79" s="36"/>
     </row>
     <row r="80" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C80" s="17" t="s">
@@ -2437,13 +2437,13 @@
         <v>31</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F80" s="3"/>
-      <c r="G80" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H80" s="29"/>
+      <c r="G80" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H80" s="36"/>
     </row>
     <row r="81" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C81" s="18"/>
@@ -2451,41 +2451,41 @@
         <v>31</v>
       </c>
       <c r="E81" s="3" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="F81" s="3"/>
-      <c r="G81" s="28" t="s">
-        <v>98</v>
-      </c>
-      <c r="H81" s="29"/>
+      <c r="G81" s="35" t="s">
+        <v>96</v>
+      </c>
+      <c r="H81" s="36"/>
     </row>
     <row r="82" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C82" s="18"/>
       <c r="D82" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E82" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F82" s="3"/>
-      <c r="G82" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H82" s="29"/>
+      <c r="G82" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H82" s="36"/>
     </row>
     <row r="83" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C83" s="18"/>
       <c r="D83" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E83" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F83" s="3"/>
-      <c r="G83" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H83" s="29"/>
+      <c r="G83" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H83" s="36"/>
     </row>
     <row r="84" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C84" s="19"/>
@@ -2493,13 +2493,13 @@
         <v>31</v>
       </c>
       <c r="E84" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="F84" s="10"/>
-      <c r="G84" s="28" t="s">
-        <v>104</v>
-      </c>
-      <c r="H84" s="29"/>
+      <c r="G84" s="35" t="s">
+        <v>102</v>
+      </c>
+      <c r="H84" s="36"/>
     </row>
     <row r="86" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="87" spans="1:8" x14ac:dyDescent="0.3">
@@ -2518,10 +2518,10 @@
       <c r="F87" s="21" t="s">
         <v>47</v>
       </c>
-      <c r="G87" s="32" t="s">
+      <c r="G87" s="41" t="s">
         <v>27</v>
       </c>
-      <c r="H87" s="33"/>
+      <c r="H87" s="42"/>
     </row>
     <row r="88" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C88" s="17" t="s">
@@ -2531,31 +2531,31 @@
         <v>31</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="F88" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G88" s="28" t="s">
-        <v>102</v>
-      </c>
-      <c r="H88" s="29"/>
+      <c r="G88" s="35" t="s">
+        <v>100</v>
+      </c>
+      <c r="H88" s="36"/>
     </row>
     <row r="89" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C89" s="18"/>
       <c r="D89" s="3" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F89" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G89" s="28" t="s">
-        <v>106</v>
-      </c>
-      <c r="H89" s="29"/>
+      <c r="G89" s="35" t="s">
+        <v>104</v>
+      </c>
+      <c r="H89" s="36"/>
     </row>
     <row r="90" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C90" s="18"/>
@@ -2563,15 +2563,15 @@
         <v>31</v>
       </c>
       <c r="E90" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F90" s="20" t="s">
         <v>45</v>
       </c>
-      <c r="G90" s="28" t="s">
-        <v>94</v>
-      </c>
-      <c r="H90" s="29"/>
+      <c r="G90" s="35" t="s">
+        <v>92</v>
+      </c>
+      <c r="H90" s="36"/>
     </row>
     <row r="91" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C91" s="17" t="s">
@@ -2581,13 +2581,13 @@
         <v>31</v>
       </c>
       <c r="E91" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="F91" s="3"/>
-      <c r="G91" s="28" t="s">
-        <v>100</v>
-      </c>
-      <c r="H91" s="29"/>
+      <c r="G91" s="35" t="s">
+        <v>98</v>
+      </c>
+      <c r="H91" s="36"/>
     </row>
     <row r="92" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C92" s="18"/>
@@ -2595,27 +2595,27 @@
         <v>31</v>
       </c>
       <c r="E92" s="3" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="F92" s="3"/>
-      <c r="G92" s="28" t="s">
-        <v>97</v>
-      </c>
-      <c r="H92" s="29"/>
+      <c r="G92" s="35" t="s">
+        <v>95</v>
+      </c>
+      <c r="H92" s="36"/>
     </row>
     <row r="93" spans="1:8" x14ac:dyDescent="0.3">
       <c r="C93" s="18"/>
       <c r="D93" s="3" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E93" s="3" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="F93" s="3"/>
-      <c r="G93" s="28" t="s">
-        <v>82</v>
-      </c>
-      <c r="H93" s="29"/>
+      <c r="G93" s="35" t="s">
+        <v>80</v>
+      </c>
+      <c r="H93" s="36"/>
     </row>
     <row r="94" spans="1:8" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C94" s="19"/>
@@ -2623,22 +2623,71 @@
         <v>31</v>
       </c>
       <c r="E94" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="F94" s="10"/>
-      <c r="G94" s="30" t="s">
-        <v>93</v>
-      </c>
-      <c r="H94" s="31"/>
+      <c r="G94" s="43" t="s">
+        <v>91</v>
+      </c>
+      <c r="H94" s="44"/>
     </row>
   </sheetData>
   <mergeCells count="75">
-    <mergeCell ref="E13:F13"/>
-    <mergeCell ref="E23:E32"/>
-    <mergeCell ref="E16:F16"/>
-    <mergeCell ref="E22:F22"/>
-    <mergeCell ref="E14:F14"/>
-    <mergeCell ref="E15:F15"/>
+    <mergeCell ref="E9:H9"/>
+    <mergeCell ref="E10:H10"/>
+    <mergeCell ref="E3:H3"/>
+    <mergeCell ref="E4:H4"/>
+    <mergeCell ref="E5:H5"/>
+    <mergeCell ref="E6:H6"/>
+    <mergeCell ref="E7:H7"/>
+    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="G94:H94"/>
+    <mergeCell ref="G82:H82"/>
+    <mergeCell ref="G83:H83"/>
+    <mergeCell ref="G84:H84"/>
+    <mergeCell ref="G87:H87"/>
+    <mergeCell ref="G88:H88"/>
+    <mergeCell ref="G89:H89"/>
+    <mergeCell ref="G90:H90"/>
+    <mergeCell ref="G91:H91"/>
+    <mergeCell ref="G92:H92"/>
+    <mergeCell ref="G93:H93"/>
+    <mergeCell ref="G81:H81"/>
+    <mergeCell ref="G68:H68"/>
+    <mergeCell ref="G71:H71"/>
+    <mergeCell ref="G72:H72"/>
+    <mergeCell ref="G73:H73"/>
+    <mergeCell ref="G74:H74"/>
+    <mergeCell ref="G75:H75"/>
+    <mergeCell ref="G76:H76"/>
+    <mergeCell ref="G77:H77"/>
+    <mergeCell ref="G78:H78"/>
+    <mergeCell ref="G79:H79"/>
+    <mergeCell ref="G80:H80"/>
+    <mergeCell ref="G67:H67"/>
+    <mergeCell ref="G56:H56"/>
+    <mergeCell ref="G57:H57"/>
+    <mergeCell ref="G58:H58"/>
+    <mergeCell ref="G59:H59"/>
+    <mergeCell ref="G60:H60"/>
+    <mergeCell ref="G61:H61"/>
+    <mergeCell ref="G62:H62"/>
+    <mergeCell ref="G63:H63"/>
+    <mergeCell ref="G64:H64"/>
+    <mergeCell ref="G65:H65"/>
+    <mergeCell ref="G66:H66"/>
+    <mergeCell ref="G55:H55"/>
+    <mergeCell ref="G42:H42"/>
+    <mergeCell ref="G43:H43"/>
+    <mergeCell ref="G44:H44"/>
+    <mergeCell ref="G45:H45"/>
+    <mergeCell ref="G46:H46"/>
+    <mergeCell ref="G47:H47"/>
+    <mergeCell ref="G48:H48"/>
+    <mergeCell ref="G49:H49"/>
+    <mergeCell ref="G50:H50"/>
+    <mergeCell ref="G51:H51"/>
+    <mergeCell ref="G52:H52"/>
     <mergeCell ref="G40:H40"/>
     <mergeCell ref="G41:H41"/>
     <mergeCell ref="C14:C20"/>
@@ -2653,61 +2702,12 @@
     <mergeCell ref="G37:H37"/>
     <mergeCell ref="G38:H38"/>
     <mergeCell ref="G39:H39"/>
-    <mergeCell ref="G55:H55"/>
-    <mergeCell ref="G42:H42"/>
-    <mergeCell ref="G43:H43"/>
-    <mergeCell ref="G44:H44"/>
-    <mergeCell ref="G45:H45"/>
-    <mergeCell ref="G46:H46"/>
-    <mergeCell ref="G47:H47"/>
-    <mergeCell ref="G48:H48"/>
-    <mergeCell ref="G49:H49"/>
-    <mergeCell ref="G50:H50"/>
-    <mergeCell ref="G51:H51"/>
-    <mergeCell ref="G52:H52"/>
-    <mergeCell ref="G67:H67"/>
-    <mergeCell ref="G56:H56"/>
-    <mergeCell ref="G57:H57"/>
-    <mergeCell ref="G58:H58"/>
-    <mergeCell ref="G59:H59"/>
-    <mergeCell ref="G60:H60"/>
-    <mergeCell ref="G61:H61"/>
-    <mergeCell ref="G62:H62"/>
-    <mergeCell ref="G63:H63"/>
-    <mergeCell ref="G64:H64"/>
-    <mergeCell ref="G65:H65"/>
-    <mergeCell ref="G66:H66"/>
-    <mergeCell ref="G81:H81"/>
-    <mergeCell ref="G68:H68"/>
-    <mergeCell ref="G71:H71"/>
-    <mergeCell ref="G72:H72"/>
-    <mergeCell ref="G73:H73"/>
-    <mergeCell ref="G74:H74"/>
-    <mergeCell ref="G75:H75"/>
-    <mergeCell ref="G76:H76"/>
-    <mergeCell ref="G77:H77"/>
-    <mergeCell ref="G78:H78"/>
-    <mergeCell ref="G79:H79"/>
-    <mergeCell ref="G80:H80"/>
-    <mergeCell ref="G94:H94"/>
-    <mergeCell ref="G82:H82"/>
-    <mergeCell ref="G83:H83"/>
-    <mergeCell ref="G84:H84"/>
-    <mergeCell ref="G87:H87"/>
-    <mergeCell ref="G88:H88"/>
-    <mergeCell ref="G89:H89"/>
-    <mergeCell ref="G90:H90"/>
-    <mergeCell ref="G91:H91"/>
-    <mergeCell ref="G92:H92"/>
-    <mergeCell ref="G93:H93"/>
-    <mergeCell ref="E9:H9"/>
-    <mergeCell ref="E10:H10"/>
-    <mergeCell ref="E3:H3"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="E5:H5"/>
-    <mergeCell ref="E6:H6"/>
-    <mergeCell ref="E7:H7"/>
-    <mergeCell ref="E8:H8"/>
+    <mergeCell ref="E13:F13"/>
+    <mergeCell ref="E23:E32"/>
+    <mergeCell ref="E16:F16"/>
+    <mergeCell ref="E22:F22"/>
+    <mergeCell ref="E14:F14"/>
+    <mergeCell ref="E15:F15"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
